--- a/Documentacion/Product backlog/Product Backlog v1.2/Product Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Product Backlog_Versión 1.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsaet\OneDrive\Escritorio\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13EB5EC-0008-443F-B2F4-C8EAA135A6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F64068-215D-4F01-B520-9D7B848325AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$B$2:$G$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1373,7 +1374,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1594,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="10" t="s">
@@ -1616,7 +1617,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="10" t="s">
@@ -1639,7 +1640,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="10" t="s">
@@ -1662,7 +1663,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="10" t="s">
@@ -1731,7 +1732,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="10" t="s">
@@ -1754,7 +1755,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="10" t="s">
@@ -1800,7 +1801,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="10" t="s">
@@ -1823,7 +1824,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="10" t="s">
@@ -1846,7 +1847,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="10" t="s">
@@ -1869,7 +1870,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="10" t="s">
@@ -1892,7 +1893,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="10" t="s">
@@ -1915,7 +1916,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="10" t="s">
@@ -1961,7 +1962,7 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="10" t="s">
@@ -1984,7 +1985,7 @@
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="10" t="s">
@@ -2007,7 +2008,7 @@
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="10" t="s">
@@ -2030,7 +2031,7 @@
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="10" t="s">
@@ -2049,11 +2050,11 @@
         <v>4</v>
       </c>
       <c r="H31" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="10" t="s">
@@ -2072,11 +2073,11 @@
         <v>4</v>
       </c>
       <c r="H32" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="10" t="s">
@@ -2095,11 +2096,11 @@
         <v>4</v>
       </c>
       <c r="H33" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="10" t="s">
@@ -2122,7 +2123,7 @@
       </c>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="10" t="s">
@@ -2141,11 +2142,11 @@
         <v>4</v>
       </c>
       <c r="H35" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="10" t="s">
@@ -2168,7 +2169,7 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="10" t="s">
@@ -2191,7 +2192,7 @@
       </c>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="10" t="s">
@@ -2214,7 +2215,7 @@
       </c>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="10" t="s">
@@ -2237,7 +2238,7 @@
       </c>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="10" t="s">
@@ -2260,7 +2261,7 @@
       </c>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="10" t="s">
@@ -2283,7 +2284,7 @@
       </c>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="10" t="s">
@@ -2306,7 +2307,7 @@
       </c>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="10" t="s">
@@ -2329,7 +2330,7 @@
       </c>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="10" t="s">
@@ -2375,7 +2376,7 @@
       </c>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="10" t="s">
@@ -2398,7 +2399,7 @@
       </c>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="10" t="s">
@@ -2421,7 +2422,7 @@
       </c>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="10" t="s">
@@ -2444,7 +2445,7 @@
       </c>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="10" t="s">
@@ -2467,7 +2468,7 @@
       </c>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="10" t="s">
@@ -2490,7 +2491,7 @@
       </c>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="10" t="s">
@@ -2513,7 +2514,7 @@
       </c>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="10" t="s">
@@ -2536,7 +2537,7 @@
       </c>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="10" t="s">
@@ -2582,7 +2583,7 @@
       </c>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="10" t="s">
@@ -2605,7 +2606,7 @@
       </c>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="10" t="s">
@@ -2651,7 +2652,7 @@
       </c>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="10" t="s">
@@ -2674,7 +2675,7 @@
       </c>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="10" t="s">
@@ -2697,7 +2698,7 @@
       </c>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="10" t="s">
@@ -2766,7 +2767,7 @@
       </c>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="11" t="s">

--- a/Documentacion/Product backlog/Product Backlog v1.2/Product Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Product Backlog_Versión 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F64068-215D-4F01-B520-9D7B848325AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21DA561-BF52-4F1B-B3DA-99EF5A251419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$B$2:$G$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="195">
   <si>
     <t>Enunciado de la Historia</t>
   </si>
@@ -577,13 +576,58 @@
   </si>
   <si>
     <t>Realizar la presentación final del proyecto a los stakeholders y realizar la entrega formal.</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 9</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Sprint 7</t>
+  </si>
+  <si>
+    <t>Sprint 8</t>
+  </si>
+  <si>
+    <t>Sprint 10</t>
+  </si>
+  <si>
+    <t>Sprint 11</t>
+  </si>
+  <si>
+    <t>Sprint 12</t>
+  </si>
+  <si>
+    <t>Hecho</t>
+  </si>
+  <si>
+    <t>Por hacer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,30 +643,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI Variable Small Semibol"/>
-    </font>
-    <font>
-      <b/>
       <sz val="26"/>
       <color theme="1"/>
       <name val="Segoe UI Variable Small Semibol"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Segoe UI Variable Small Semibol"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Segoe UI Variable Small Semibol"/>
@@ -648,7 +674,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -666,19 +692,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -806,93 +819,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -913,129 +842,97 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1065,23 +962,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
-<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
-  <bag type="Checkbox"/>
-  <bag type="XFControls">
-    <bagId k="CellControl">0</bagId>
-  </bag>
-  <bag type="XFComplement">
-    <bagId k="XFControls">1</bagId>
-  </bag>
-  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
-    <a k="MappedFeaturePropertyBags">
-      <bagId>2</bagId>
-    </a>
-  </bag>
-</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1371,1448 +1251,1832 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="88.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="17" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="88.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="9" customWidth="1"/>
+    <col min="7" max="8" width="17.85546875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="17" style="7" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="1"/>
+    <col min="12" max="12" width="11.42578125" style="21"/>
+    <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="15"/>
-    </row>
-    <row r="2" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="29" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="27" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="9" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="10" t="s">
+      <c r="G6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10" t="s">
+      <c r="G7" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10" t="s">
+      <c r="G8" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="10" t="s">
+      <c r="G9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="10" t="s">
+      <c r="G10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="10" t="s">
+      <c r="G11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E13" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="10" t="s">
+      <c r="G13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D15" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E15" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F15" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="10" t="s">
+      <c r="G15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E16" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F16" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="10" t="s">
+      <c r="G16" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E17" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F17" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="10" t="s">
+      <c r="G17" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D18" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E18" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F18" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="10" t="s">
+      <c r="G18" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E19" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F19" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="10" t="s">
+      <c r="G19" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="1:12" ht="66" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E20" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F20" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="10" t="s">
+      <c r="G20" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D21" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E21" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="10" t="s">
+      <c r="G21" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D22" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="10" t="s">
+      <c r="G22" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D23" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E23" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F23" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="10" t="s">
+      <c r="G23" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="1:12" ht="66" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D24" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E24" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F24" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="10" t="s">
+      <c r="G24" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D25" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E25" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F25" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G25" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="10" t="s">
+      <c r="H25" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D26" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E26" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F26" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="10" t="s">
+      <c r="G26" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+    </row>
+    <row r="27" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+    </row>
+    <row r="28" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D28" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E28" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F28" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="10" t="s">
+      <c r="G28" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D29" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E29" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F29" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="10" t="s">
+      <c r="G29" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D30" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E30" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F30" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="10" t="s">
+      <c r="G30" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D31" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E31" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F31" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="10" t="s">
+      <c r="G31" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D32" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E32" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F32" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="10" t="s">
+      <c r="G32" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+    </row>
+    <row r="33" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D33" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E33" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F33" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="10" t="s">
+      <c r="G33" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+    </row>
+    <row r="34" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D34" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E34" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F34" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G31" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="10" t="s">
+      <c r="G34" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D35" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E35" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F35" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="10" t="s">
+      <c r="G35" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+    </row>
+    <row r="36" spans="1:12" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D36" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E36" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F36" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="10" t="s">
+      <c r="G36" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+    </row>
+    <row r="37" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D37" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E37" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F37" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G37" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="10" t="s">
+      <c r="H37" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+    </row>
+    <row r="38" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D38" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E38" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F38" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="10" t="s">
+      <c r="G38" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+    </row>
+    <row r="39" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D39" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E39" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F39" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="10" t="s">
+      <c r="G39" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+    </row>
+    <row r="40" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D40" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E40" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F40" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G37" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H37" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="10" t="s">
+      <c r="G40" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+    </row>
+    <row r="41" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D41" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E41" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F41" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G41" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="10" t="s">
+      <c r="H41" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+    </row>
+    <row r="42" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D42" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E42" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F42" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="10" t="s">
+      <c r="G42" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+    </row>
+    <row r="43" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D43" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E43" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F43" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H40" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="10" t="s">
+      <c r="G43" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I43" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+    </row>
+    <row r="44" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D44" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E44" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F44" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G41" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="10" t="s">
+      <c r="G44" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+    </row>
+    <row r="45" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+    </row>
+    <row r="46" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D46" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E46" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F46" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G46" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="10" t="s">
+      <c r="H46" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+    </row>
+    <row r="47" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D47" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E47" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F47" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="G47" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="10" t="s">
+      <c r="H47" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+    </row>
+    <row r="48" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D48" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E48" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F48" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G48" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="10" t="s">
+      <c r="H48" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+    </row>
+    <row r="49" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D49" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E49" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F49" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G49" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="10" t="s">
+      <c r="H49" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I49" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+    </row>
+    <row r="50" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D50" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E50" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F46" s="20" t="s">
+      <c r="F50" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G46" s="20" t="s">
+      <c r="G50" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="10" t="s">
+      <c r="H50" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+    </row>
+    <row r="51" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D51" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E51" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F51" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G47" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="10" t="s">
+      <c r="G51" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I51" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+    </row>
+    <row r="52" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D52" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E52" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="F52" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G48" s="20" t="s">
+      <c r="G52" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="10" t="s">
+      <c r="H52" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I52" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+    </row>
+    <row r="53" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D53" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E53" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F53" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G53" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="10" t="s">
+      <c r="H53" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+    </row>
+    <row r="54" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D54" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E54" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F54" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H50" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="10" t="s">
+      <c r="G54" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+    </row>
+    <row r="55" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D55" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E55" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F55" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G51" s="20" t="s">
+      <c r="G55" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="10" t="s">
+      <c r="H55" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+    </row>
+    <row r="56" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D56" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E56" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="F56" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G52" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="10" t="s">
+      <c r="G56" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I56" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+    </row>
+    <row r="57" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D57" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E57" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="F57" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G53" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H53" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="10" t="s">
+      <c r="G57" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I57" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+    </row>
+    <row r="58" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D58" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E58" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="F58" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G54" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="10" t="s">
+      <c r="G58" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I58" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+    </row>
+    <row r="59" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D59" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E59" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="F59" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G55" s="20" t="s">
+      <c r="G59" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H55" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="10" t="s">
+      <c r="H59" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I59" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+    </row>
+    <row r="60" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D60" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E60" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="F56" s="20" t="s">
+      <c r="F60" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G56" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H56" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="10" t="s">
+      <c r="G60" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I60" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+    </row>
+    <row r="61" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D61" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E61" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="F57" s="20" t="s">
+      <c r="F61" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G57" s="20" t="s">
+      <c r="G61" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="10" t="s">
+      <c r="H61" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I61" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+    </row>
+    <row r="62" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D62" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E62" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="F58" s="20" t="s">
+      <c r="F62" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G58" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="10" t="s">
+      <c r="G62" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I62" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+    </row>
+    <row r="63" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D63" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E63" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="F59" s="20" t="s">
+      <c r="F63" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G59" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" s="6"/>
-    </row>
-    <row r="60" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="10" t="s">
+      <c r="G63" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H63" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I63" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J63" s="3"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+    </row>
+    <row r="64" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D64" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E64" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="F60" s="20" t="s">
+      <c r="F64" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G60" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H60" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="10" t="s">
+      <c r="G64" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H64" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I64" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+    </row>
+    <row r="65" spans="3:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D65" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E65" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="F61" s="20" t="s">
+      <c r="F65" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G61" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H61" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="10" t="s">
+      <c r="G65" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H65" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I65" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+    </row>
+    <row r="66" spans="3:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D66" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E66" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="F66" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G62" s="20" t="s">
+      <c r="G66" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H62" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="11" t="s">
+      <c r="H66" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I66" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+    </row>
+    <row r="67" spans="3:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D67" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E67" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="F63" s="21" t="s">
+      <c r="F67" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G63" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H63" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" s="6"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="2"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="16"/>
-    </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
+      <c r="G67" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H67" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I67" s="22" t="s">
+        <v>192</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:H4"/>
+    <mergeCell ref="C2:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H6:H63">
+  <conditionalFormatting sqref="C6:I67">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$H6=TRUE</formula>
+      <formula>$H6="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Product Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Product Backlog_Versión 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD48377-EA11-4520-9A84-8535F4403688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D10D1A-0868-4C71-9B08-9EA4C33E23E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$B$2:$G$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$B$2:$G$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="192">
   <si>
     <t>Enunciado de la Historia</t>
   </si>
@@ -345,12 +345,6 @@
   </si>
   <si>
     <t>Implementar lógica para aplicar promociones</t>
-  </si>
-  <si>
-    <t>Probar integración de promociones e inventarios</t>
-  </si>
-  <si>
-    <t>Verificar que las promociones y los cambios en inventarios se reflejan correctamente.</t>
   </si>
   <si>
     <t>HT-015</t>
@@ -916,6 +910,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -934,52 +955,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1312,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,39 +1325,39 @@
     <row r="2" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1399,7 +1379,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>86</v>
@@ -1411,26 +1391,26 @@
     <row r="6" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>177</v>
+      <c r="G6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6"/>
@@ -1439,26 +1419,26 @@
     <row r="7" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>177</v>
+      <c r="G7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7"/>
@@ -1467,26 +1447,26 @@
     <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>177</v>
+      <c r="G8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8"/>
@@ -1495,26 +1475,26 @@
     <row r="9" spans="1:12" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="F9" s="24" t="s">
+      <c r="D9" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>177</v>
+      <c r="G9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9"/>
@@ -1523,26 +1503,26 @@
     <row r="10" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="F10" s="24" t="s">
+      <c r="D10" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>177</v>
+      <c r="G10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10"/>
@@ -1551,26 +1531,26 @@
     <row r="11" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>177</v>
+      <c r="G11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11"/>
@@ -1579,26 +1559,26 @@
     <row r="12" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="D12" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>177</v>
+      <c r="G12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12"/>
@@ -1607,26 +1587,26 @@
     <row r="13" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" s="24" t="s">
+      <c r="D13" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>177</v>
+      <c r="G13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13"/>
@@ -1635,26 +1615,26 @@
     <row r="14" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>177</v>
+      <c r="G14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14"/>
@@ -1663,26 +1643,26 @@
     <row r="15" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>177</v>
+      <c r="G15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15"/>
@@ -1691,26 +1671,26 @@
     <row r="16" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>177</v>
+      <c r="G16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16"/>
@@ -1719,26 +1699,26 @@
     <row r="17" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="F17" s="24" t="s">
+      <c r="E17" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>177</v>
+      <c r="G17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17"/>
@@ -1747,26 +1727,26 @@
     <row r="18" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>177</v>
+      <c r="G18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18"/>
@@ -1775,26 +1755,26 @@
     <row r="19" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E19" s="24" t="s">
+      <c r="D19" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>177</v>
+      <c r="G19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19"/>
@@ -1803,26 +1783,26 @@
     <row r="20" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="F20" s="24" t="s">
+      <c r="E20" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>177</v>
+      <c r="G20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20"/>
@@ -1831,26 +1811,26 @@
     <row r="21" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>177</v>
+      <c r="H21" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21"/>
@@ -1859,26 +1839,26 @@
     <row r="22" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="F22" s="24" t="s">
+      <c r="D22" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>177</v>
+      <c r="G22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22"/>
@@ -1887,26 +1867,26 @@
     <row r="23" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>177</v>
+      <c r="G23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23"/>
@@ -1915,26 +1895,26 @@
     <row r="24" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>177</v>
+      <c r="G24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24"/>
@@ -1943,26 +1923,26 @@
     <row r="25" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>177</v>
+      <c r="G25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25"/>
@@ -1971,26 +1951,26 @@
     <row r="26" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>177</v>
+      <c r="G26" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26"/>
@@ -1999,26 +1979,26 @@
     <row r="27" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>177</v>
+      <c r="G27" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27"/>
@@ -2027,26 +2007,26 @@
     <row r="28" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>177</v>
+      <c r="G28" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28"/>
@@ -2055,26 +2035,26 @@
     <row r="29" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>177</v>
+      <c r="G29" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29"/>
@@ -2083,26 +2063,26 @@
     <row r="30" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>177</v>
+      <c r="G30" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30"/>
@@ -2111,26 +2091,26 @@
     <row r="31" spans="1:12" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>177</v>
+      <c r="G31" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31"/>
@@ -2139,26 +2119,26 @@
     <row r="32" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="I32" s="27" t="s">
-        <v>177</v>
+      <c r="H32" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32"/>
@@ -2167,26 +2147,26 @@
     <row r="33" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="I33" s="27" t="s">
-        <v>177</v>
+      <c r="G33" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33"/>
@@ -2195,26 +2175,26 @@
     <row r="34" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="I34" s="27" t="s">
-        <v>177</v>
+      <c r="C34" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34"/>
@@ -2223,26 +2203,26 @@
     <row r="35" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="24" t="s">
+      <c r="C35" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F35" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="I35" s="27" t="s">
-        <v>177</v>
+      <c r="G35" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35"/>
@@ -2251,26 +2231,26 @@
     <row r="36" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>177</v>
+      <c r="C36" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36"/>
@@ -2279,26 +2259,26 @@
     <row r="37" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H37" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="I37" s="27" t="s">
-        <v>177</v>
+      <c r="C37" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37"/>
@@ -2307,26 +2287,26 @@
     <row r="38" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" s="24" t="s">
+      <c r="C38" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="I38" s="27" t="s">
-        <v>177</v>
+      <c r="H38" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38"/>
@@ -2335,26 +2315,26 @@
     <row r="39" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" s="24" t="s">
+      <c r="C39" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="I39" s="27" t="s">
-        <v>177</v>
+      <c r="H39" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39"/>
@@ -2363,26 +2343,26 @@
     <row r="40" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H40" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="I40" s="27" t="s">
-        <v>178</v>
+      <c r="C40" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40"/>
@@ -2391,26 +2371,26 @@
     <row r="41" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="I41" s="27" t="s">
-        <v>178</v>
+      <c r="C41" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41"/>
@@ -2419,26 +2399,26 @@
     <row r="42" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="25" t="s">
+      <c r="C42" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="I42" s="27" t="s">
-        <v>178</v>
+      <c r="H42" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42"/>
@@ -2447,26 +2427,26 @@
     <row r="43" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="24" t="s">
+      <c r="C43" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="F43" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="I43" s="27" t="s">
-        <v>178</v>
+      <c r="E43" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43"/>
@@ -2475,26 +2455,26 @@
     <row r="44" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F44" s="24" t="s">
+      <c r="C44" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G44" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="I44" s="27" t="s">
-        <v>178</v>
+      <c r="G44" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44"/>
@@ -2503,26 +2483,26 @@
     <row r="45" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="24" t="s">
+      <c r="C45" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="I45" s="27" t="s">
-        <v>178</v>
+      <c r="H45" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45"/>
@@ -2531,26 +2511,26 @@
     <row r="46" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" s="25" t="s">
+      <c r="C46" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="D46" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="E46" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="I46" s="27" t="s">
-        <v>178</v>
+      <c r="H46" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46"/>
@@ -2559,26 +2539,26 @@
     <row r="47" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="25" t="s">
+      <c r="C47" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="D47" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="F47" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="I47" s="27" t="s">
-        <v>178</v>
+      <c r="E47" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47"/>
@@ -2587,26 +2567,26 @@
     <row r="48" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="I48" s="27" t="s">
-        <v>178</v>
+      <c r="C48" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I48" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48"/>
@@ -2615,26 +2595,26 @@
     <row r="49" spans="1:14" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="E49" s="24" t="s">
+      <c r="C49" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F49" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="I49" s="27" t="s">
-        <v>178</v>
+      <c r="E49" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49"/>
@@ -2643,26 +2623,26 @@
     <row r="50" spans="1:14" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="25" t="s">
+      <c r="C50" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="D50" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F50" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H50" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="I50" s="27" t="s">
-        <v>178</v>
+      <c r="E50" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50"/>
@@ -2671,26 +2651,26 @@
     <row r="51" spans="1:14" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D51" s="25" t="s">
+      <c r="C51" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="D51" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F51" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G51" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H51" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="I51" s="27" t="s">
-        <v>178</v>
+      <c r="E51" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51"/>
@@ -2699,26 +2679,26 @@
     <row r="52" spans="1:14" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" s="25" t="s">
+      <c r="C52" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="D52" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="F52" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="I52" s="27" t="s">
-        <v>178</v>
+      <c r="E52" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52"/>
@@ -2727,26 +2707,26 @@
     <row r="53" spans="1:14" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D53" s="25" t="s">
+      <c r="C53" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="E53" s="24" t="s">
+      <c r="D53" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F53" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H53" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="I53" s="27" t="s">
-        <v>178</v>
+      <c r="E53" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="I53" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53"/>
@@ -2755,26 +2735,26 @@
     <row r="54" spans="1:14" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D54" s="25" t="s">
+      <c r="C54" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="D54" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="F54" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="I54" s="27" t="s">
-        <v>178</v>
+      <c r="E54" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="I54" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54"/>
@@ -2783,82 +2763,82 @@
     <row r="55" spans="1:14" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" s="25" t="s">
+      <c r="C55" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="E55" s="24" t="s">
+      <c r="D55" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="F55" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H55" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="I55" s="27" t="s">
-        <v>178</v>
+      <c r="E55" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="I55" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55"/>
       <c r="L55"/>
     </row>
-    <row r="56" spans="1:14" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D56" s="25" t="s">
+      <c r="C56" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="D56" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="E56" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F56" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G56" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H56" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="I56" s="27" t="s">
-        <v>178</v>
+      <c r="G56" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I56" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56"/>
       <c r="L56"/>
     </row>
-    <row r="57" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D57" s="25" t="s">
+      <c r="C57" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="E57" s="24" t="s">
+      <c r="D57" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="F57" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="26" t="s">
+      <c r="E57" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I57" s="21" t="s">
         <v>176</v>
-      </c>
-      <c r="I57" s="27" t="s">
-        <v>178</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57"/>
@@ -2867,26 +2847,26 @@
     <row r="58" spans="1:14" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D58" s="25" t="s">
+      <c r="C58" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E58" s="24" t="s">
+      <c r="D58" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="F58" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="26" t="s">
+      <c r="E58" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I58" s="21" t="s">
         <v>176</v>
-      </c>
-      <c r="I58" s="27" t="s">
-        <v>178</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58"/>
@@ -2895,161 +2875,133 @@
     <row r="59" spans="1:14" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D59" s="25" t="s">
+      <c r="C59" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="D59" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="F59" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="26" t="s">
+      <c r="E59" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="I59" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="I59" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="J59" s="3"/>
+      <c r="J59" s="15"/>
       <c r="K59"/>
       <c r="L59"/>
     </row>
-    <row r="60" spans="1:14" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="F60" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H60" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="I60" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="J60" s="21"/>
+    <row r="60" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="17"/>
       <c r="K60"/>
       <c r="L60"/>
-    </row>
-    <row r="61" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="23"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="30"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+    </row>
+    <row r="61" spans="1:14" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="K61" s="14"/>
     </row>
     <row r="62" spans="1:14" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
       <c r="K62" s="14"/>
     </row>
     <row r="63" spans="1:14" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
       <c r="K63" s="14"/>
     </row>
     <row r="64" spans="1:14" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
       <c r="K64" s="14"/>
     </row>
     <row r="65" spans="3:11" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
       <c r="K65" s="14"/>
     </row>
     <row r="66" spans="3:11" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="K66" s="14"/>
-    </row>
-    <row r="67" spans="3:11" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-    </row>
-    <row r="76" spans="3:11" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+    </row>
+    <row r="75" spans="3:11" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C61:I67">
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>$H61="Hecho"</formula>
+  <conditionalFormatting sqref="C6:I59">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$I6="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C76:I76">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>$H76="Hecho"</formula>
+  <conditionalFormatting sqref="C60:I66">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$H60="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:I60">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$I6="Hecho"</formula>
+  <conditionalFormatting sqref="C75:I75">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$H75="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Product Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Product Backlog_Versión 1.2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D10D1A-0868-4C71-9B08-9EA4C33E23E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB1602B-5844-47BC-A56A-1F263B6263C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$B$2:$G$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$B$2:$G$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="186">
   <si>
     <t>Enunciado de la Historia</t>
   </si>
@@ -281,9 +281,6 @@
     <t>Diseñar notificaciones basadas en cambios de estado</t>
   </si>
   <si>
-    <t>HT-041</t>
-  </si>
-  <si>
     <t>HT-053</t>
   </si>
   <si>
@@ -422,9 +419,6 @@
     <t>Validar que las notificaciones y actualizaciones de estado se reflejen correctamente en la base de datos.</t>
   </si>
   <si>
-    <t>Ejecutar pruebas de carga en las principales funcionalidades del sistema (registro, carrito, pedidos).</t>
-  </si>
-  <si>
     <t>HT-042</t>
   </si>
   <si>
@@ -434,15 +428,6 @@
     <t>Validar la interacción entre las diferentes capas del sistema (base de datos, lógica y presentación).</t>
   </si>
   <si>
-    <t>HT-043</t>
-  </si>
-  <si>
-    <t>Documentar los casos de prueba realizados</t>
-  </si>
-  <si>
-    <t>Crear documentación detallada de las pruebas realizadas en el sistema.</t>
-  </si>
-  <si>
     <t>HT-044</t>
   </si>
   <si>
@@ -609,16 +594,13 @@
   </si>
   <si>
     <t>Añadir validaciones para la gestión de inventarios</t>
-  </si>
-  <si>
-    <t>Implementar pruebas de carga en las funcionalidades</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1292,13 +1274,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="1" customWidth="1"/>
@@ -1313,7 +1295,7 @@
     <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -1322,7 +1304,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="36.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="26" t="s">
@@ -1336,7 +1318,7 @@
       <c r="I2" s="28"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="21" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="29"/>
@@ -1348,7 +1330,7 @@
       <c r="I3" s="31"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="29"/>
@@ -1360,7 +1342,7 @@
       <c r="I4" s="31"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="36.75" thickBot="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="11" t="s">
@@ -1379,26 +1361,26 @@
         <v>3</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5"/>
       <c r="L5"/>
     </row>
-    <row r="6" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="63.75" customHeight="1" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>27</v>
@@ -1407,16 +1389,16 @@
         <v>4</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6"/>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="51" customHeight="1" thickBot="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="18" t="s">
@@ -1426,7 +1408,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>58</v>
@@ -1435,16 +1417,16 @@
         <v>4</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7"/>
       <c r="L7"/>
     </row>
-    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="66" customHeight="1" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="18" t="s">
@@ -1463,26 +1445,26 @@
         <v>4</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8"/>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:12" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="55.5" customHeight="1" thickBot="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>58</v>
@@ -1491,26 +1473,26 @@
         <v>4</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="48" customHeight="1" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>58</v>
@@ -1519,26 +1501,26 @@
         <v>4</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10"/>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="36.75" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>89</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>58</v>
@@ -1547,23 +1529,23 @@
         <v>4</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="44.25" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="18" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>61</v>
@@ -1575,23 +1557,23 @@
         <v>4</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="44.25" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>62</v>
@@ -1603,26 +1585,26 @@
         <v>4</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="44.25" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>30</v>
@@ -1631,16 +1613,16 @@
         <v>4</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="44.25" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="18" t="s">
@@ -1659,16 +1641,16 @@
         <v>4</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="36.75" thickBot="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="18" t="s">
@@ -1687,16 +1669,16 @@
         <v>4</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="54.75" thickBot="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="18" t="s">
@@ -1706,7 +1688,7 @@
         <v>31</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>32</v>
@@ -1715,16 +1697,16 @@
         <v>4</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="44.25" thickBot="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="18" t="s">
@@ -1743,44 +1725,44 @@
         <v>4</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18"/>
       <c r="L18"/>
     </row>
-    <row r="19" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="36.75" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>63</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="44.25" thickBot="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="18" t="s">
@@ -1790,7 +1772,7 @@
         <v>35</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>30</v>
@@ -1799,16 +1781,16 @@
         <v>4</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="44.25" thickBot="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="18" t="s">
@@ -1818,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>30</v>
@@ -1827,44 +1809,44 @@
         <v>5</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="44.25" thickBot="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="36.75" thickBot="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="18" t="s">
@@ -1883,16 +1865,16 @@
         <v>4</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="36.75" thickBot="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="18" t="s">
@@ -1911,16 +1893,16 @@
         <v>4</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="36.75" thickBot="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="18" t="s">
@@ -1930,7 +1912,7 @@
         <v>64</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>27</v>
@@ -1939,16 +1921,16 @@
         <v>4</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="44.25" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="18" t="s">
@@ -1967,16 +1949,16 @@
         <v>4</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="36.75" thickBot="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="18" t="s">
@@ -1995,16 +1977,16 @@
         <v>4</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27"/>
       <c r="L27"/>
     </row>
-    <row r="28" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="36.75" thickBot="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="18" t="s">
@@ -2023,44 +2005,44 @@
         <v>4</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28"/>
       <c r="L28"/>
     </row>
-    <row r="29" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="36.75" thickBot="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="F29" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="18" t="s">
-        <v>99</v>
-      </c>
       <c r="G29" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="36.75" thickBot="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="18" t="s">
@@ -2079,16 +2061,16 @@
         <v>4</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30"/>
       <c r="L30"/>
     </row>
-    <row r="31" spans="1:12" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="22.5" thickBot="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="18" t="s">
@@ -2107,16 +2089,16 @@
         <v>4</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31"/>
       <c r="L31"/>
     </row>
-    <row r="32" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="36.75" thickBot="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="18" t="s">
@@ -2135,26 +2117,26 @@
         <v>5</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32"/>
       <c r="L32"/>
     </row>
-    <row r="33" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="36.75" thickBot="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="18" t="s">
         <v>78</v>
       </c>
       <c r="D33" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="18" t="s">
         <v>100</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>101</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>30</v>
@@ -2163,23 +2145,23 @@
         <v>4</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33"/>
       <c r="L33"/>
     </row>
-    <row r="34" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="54.75" thickBot="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="18" t="s">
         <v>67</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>68</v>
@@ -2191,26 +2173,26 @@
         <v>4</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34"/>
       <c r="L34"/>
     </row>
-    <row r="35" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="36.75" thickBot="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="E35" s="18" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>32</v>
@@ -2219,16 +2201,16 @@
         <v>4</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35"/>
       <c r="L35"/>
     </row>
-    <row r="36" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="44.25" thickBot="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="18" t="s">
@@ -2247,23 +2229,23 @@
         <v>5</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36"/>
       <c r="L36"/>
     </row>
-    <row r="37" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="36.75" thickBot="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>66</v>
@@ -2275,26 +2257,26 @@
         <v>4</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37"/>
       <c r="L37"/>
     </row>
-    <row r="38" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="36.75" thickBot="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="E38" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>58</v>
@@ -2303,26 +2285,26 @@
         <v>5</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38"/>
       <c r="L38"/>
     </row>
-    <row r="39" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="36.75" thickBot="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="E39" s="18" t="s">
         <v>107</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>108</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>58</v>
@@ -2331,26 +2313,26 @@
         <v>5</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39"/>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="36.75" thickBot="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="E40" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>30</v>
@@ -2359,26 +2341,26 @@
         <v>5</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40"/>
       <c r="L40"/>
     </row>
-    <row r="41" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="36.75" thickBot="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="E41" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>32</v>
@@ -2387,16 +2369,16 @@
         <v>5</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41"/>
       <c r="L41"/>
     </row>
-    <row r="42" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="54.75" thickBot="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="18" t="s">
@@ -2406,7 +2388,7 @@
         <v>80</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>32</v>
@@ -2415,26 +2397,26 @@
         <v>5</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42"/>
       <c r="L42"/>
     </row>
-    <row r="43" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="36.75" thickBot="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="E43" s="18" t="s">
         <v>126</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>30</v>
@@ -2443,16 +2425,16 @@
         <v>4</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43"/>
       <c r="L43"/>
     </row>
-    <row r="44" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="54.75" thickBot="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="18" t="s">
@@ -2471,26 +2453,26 @@
         <v>5</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44"/>
       <c r="L44"/>
     </row>
-    <row r="45" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="36.75" thickBot="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="E45" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>114</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>30</v>
@@ -2499,26 +2481,26 @@
         <v>5</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45"/>
       <c r="L45"/>
     </row>
-    <row r="46" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="36.75" thickBot="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="E46" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>117</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>30</v>
@@ -2527,110 +2509,110 @@
         <v>5</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46"/>
       <c r="L46"/>
     </row>
-    <row r="47" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="36.75" thickBot="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="E47" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="18" t="s">
-        <v>120</v>
-      </c>
       <c r="F47" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G47" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47"/>
       <c r="L47"/>
     </row>
-    <row r="48" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="36.75" thickBot="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="18" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48"/>
       <c r="L48"/>
     </row>
-    <row r="49" spans="1:14" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="36.75" thickBot="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49"/>
       <c r="L49"/>
     </row>
-    <row r="50" spans="1:14" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="36.75" thickBot="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F50" s="18" t="s">
         <v>30</v>
@@ -2639,26 +2621,26 @@
         <v>4</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50"/>
       <c r="L50"/>
     </row>
-    <row r="51" spans="1:14" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="36.75" thickBot="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F51" s="18" t="s">
         <v>27</v>
@@ -2667,256 +2649,220 @@
         <v>5</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51"/>
       <c r="L51"/>
     </row>
-    <row r="52" spans="1:14" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="36.75" thickBot="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G52" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52"/>
       <c r="L52"/>
     </row>
-    <row r="53" spans="1:14" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="36.75" thickBot="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>27</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53"/>
       <c r="L53"/>
     </row>
-    <row r="54" spans="1:14" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="30" customHeight="1" thickBot="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54"/>
       <c r="L54"/>
     </row>
-    <row r="55" spans="1:14" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="36.75" thickBot="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G55" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55"/>
       <c r="L55"/>
     </row>
-    <row r="56" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="36.75" thickBot="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56"/>
       <c r="L56"/>
     </row>
-    <row r="57" spans="1:14" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="36.75" thickBot="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G57" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="I57" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="J57" s="3"/>
+      <c r="H57" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I57" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="J57" s="15"/>
       <c r="K57"/>
       <c r="L57"/>
     </row>
-    <row r="58" spans="1:14" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="F58" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="I58" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="J58" s="3"/>
+    <row r="58" spans="1:14" ht="30" customHeight="1">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="17"/>
       <c r="K58"/>
       <c r="L58"/>
-    </row>
-    <row r="59" spans="1:14" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="F59" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="I59" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="J59" s="15"/>
-      <c r="K59"/>
-      <c r="L59"/>
-    </row>
-    <row r="60" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="17"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24"/>
-    </row>
-    <row r="61" spans="1:14" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+    </row>
+    <row r="59" spans="1:14" ht="18">
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="K59" s="14"/>
+    </row>
+    <row r="60" spans="1:14" ht="18">
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="K60" s="14"/>
+    </row>
+    <row r="61" spans="1:14" ht="18">
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
@@ -2926,7 +2872,7 @@
       <c r="I61" s="25"/>
       <c r="K61" s="14"/>
     </row>
-    <row r="62" spans="1:14" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="18">
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
       <c r="E62" s="25"/>
@@ -2936,7 +2882,7 @@
       <c r="I62" s="25"/>
       <c r="K62" s="14"/>
     </row>
-    <row r="63" spans="1:14" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="18">
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
       <c r="E63" s="25"/>
@@ -2946,7 +2892,7 @@
       <c r="I63" s="25"/>
       <c r="K63" s="14"/>
     </row>
-    <row r="64" spans="1:14" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="18">
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
       <c r="E64" s="25"/>
@@ -2954,54 +2900,34 @@
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
-      <c r="K64" s="14"/>
-    </row>
-    <row r="65" spans="3:11" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="K65" s="14"/>
-    </row>
-    <row r="66" spans="3:11" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-    </row>
-    <row r="75" spans="3:11" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
+    </row>
+    <row r="73" spans="3:9" ht="18">
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C6:I59">
+  <conditionalFormatting sqref="C6:I57">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$I6="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60:I66">
+  <conditionalFormatting sqref="C58:I64">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$H60="Hecho"</formula>
+      <formula>$H58="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C75:I75">
+  <conditionalFormatting sqref="C73:I73">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$H75="Hecho"</formula>
+      <formula>$H73="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Product Backlog_Versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Product Backlog_Versión 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB1602B-5844-47BC-A56A-1F263B6263C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7C87F8-19E9-4242-AFDE-3B92F5132910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,9 +404,6 @@
     <t>Configuración de estados</t>
   </si>
   <si>
-    <t>Permitir a los administradores gestionar los estados disponibles en pedidos y devoluciones.</t>
-  </si>
-  <si>
     <t>Crear un sistema de notificaciones para informar a los clientes sobre cambios en pedidos y devoluciones.</t>
   </si>
   <si>
@@ -594,6 +591,9 @@
   </si>
   <si>
     <t>Añadir validaciones para la gestión de inventarios</t>
+  </si>
+  <si>
+    <t>Permitir a los administradores gestionar los estados disponibles en pedidos.</t>
   </si>
 </sst>
 </file>
@@ -1276,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1361,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>85</v>
@@ -1377,7 +1377,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>83</v>
@@ -1389,10 +1389,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6"/>
@@ -1417,10 +1417,10 @@
         <v>4</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7"/>
@@ -1445,10 +1445,10 @@
         <v>4</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8"/>
@@ -1461,10 +1461,10 @@
         <v>17</v>
       </c>
       <c r="D9" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>173</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>174</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>58</v>
@@ -1473,10 +1473,10 @@
         <v>4</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9"/>
@@ -1489,10 +1489,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>175</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>176</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>58</v>
@@ -1501,10 +1501,10 @@
         <v>4</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10"/>
@@ -1529,23 +1529,23 @@
         <v>4</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:12" ht="44.25" thickBot="1">
+    <row r="12" spans="1:12" ht="36.75" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="18" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>61</v>
@@ -1557,23 +1557,23 @@
         <v>4</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" ht="44.25" thickBot="1">
+    <row r="13" spans="1:12" ht="36.75" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>62</v>
@@ -1585,16 +1585,16 @@
         <v>4</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" ht="44.25" thickBot="1">
+    <row r="14" spans="1:12" ht="36.75" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="18" t="s">
@@ -1613,16 +1613,16 @@
         <v>4</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:12" ht="44.25" thickBot="1">
+    <row r="15" spans="1:12" ht="36.75" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="18" t="s">
@@ -1641,10 +1641,10 @@
         <v>4</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15"/>
@@ -1669,10 +1669,10 @@
         <v>4</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16"/>
@@ -1688,7 +1688,7 @@
         <v>31</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>32</v>
@@ -1697,16 +1697,16 @@
         <v>4</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="1:12" ht="44.25" thickBot="1">
+    <row r="18" spans="1:12" ht="36.75" thickBot="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="18" t="s">
@@ -1725,10 +1725,10 @@
         <v>4</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18"/>
@@ -1741,7 +1741,7 @@
         <v>22</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>63</v>
@@ -1753,16 +1753,16 @@
         <v>4</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="1:12" ht="44.25" thickBot="1">
+    <row r="20" spans="1:12" ht="36.75" thickBot="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="18" t="s">
@@ -1772,7 +1772,7 @@
         <v>35</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>30</v>
@@ -1781,16 +1781,16 @@
         <v>4</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="1:12" ht="44.25" thickBot="1">
+    <row r="21" spans="1:12" ht="36.75" thickBot="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="18" t="s">
@@ -1809,26 +1809,26 @@
         <v>5</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:12" ht="44.25" thickBot="1">
+    <row r="22" spans="1:12" ht="36.75" thickBot="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="18" t="s">
         <v>94</v>
       </c>
       <c r="D22" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>182</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>183</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>92</v>
@@ -1837,10 +1837,10 @@
         <v>4</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22"/>
@@ -1865,10 +1865,10 @@
         <v>4</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23"/>
@@ -1893,10 +1893,10 @@
         <v>4</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24"/>
@@ -1921,16 +1921,16 @@
         <v>4</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:12" ht="44.25" thickBot="1">
+    <row r="26" spans="1:12" ht="36.75" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="18" t="s">
@@ -1949,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26"/>
@@ -1977,10 +1977,10 @@
         <v>4</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27"/>
@@ -2005,10 +2005,10 @@
         <v>4</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28"/>
@@ -2033,10 +2033,10 @@
         <v>4</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29"/>
@@ -2061,16 +2061,16 @@
         <v>4</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30"/>
       <c r="L30"/>
     </row>
-    <row r="31" spans="1:12" ht="22.5" thickBot="1">
+    <row r="31" spans="1:12" ht="18.75" thickBot="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="18" t="s">
@@ -2089,10 +2089,10 @@
         <v>4</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31"/>
@@ -2117,10 +2117,10 @@
         <v>5</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32"/>
@@ -2145,10 +2145,10 @@
         <v>4</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33"/>
@@ -2161,7 +2161,7 @@
         <v>67</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>68</v>
@@ -2173,10 +2173,10 @@
         <v>4</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34"/>
@@ -2192,7 +2192,7 @@
         <v>82</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>32</v>
@@ -2201,16 +2201,16 @@
         <v>4</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35"/>
       <c r="L35"/>
     </row>
-    <row r="36" spans="1:12" ht="44.25" thickBot="1">
+    <row r="36" spans="1:12" ht="54.75" thickBot="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="18" t="s">
@@ -2229,10 +2229,10 @@
         <v>5</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36"/>
@@ -2257,10 +2257,10 @@
         <v>4</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37"/>
@@ -2285,10 +2285,10 @@
         <v>5</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38"/>
@@ -2313,10 +2313,10 @@
         <v>5</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39"/>
@@ -2341,10 +2341,10 @@
         <v>5</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40"/>
@@ -2360,7 +2360,7 @@
         <v>121</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>32</v>
@@ -2369,10 +2369,10 @@
         <v>5</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41"/>
@@ -2388,7 +2388,7 @@
         <v>80</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>32</v>
@@ -2397,10 +2397,10 @@
         <v>5</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42"/>
@@ -2410,13 +2410,13 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="E43" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>30</v>
@@ -2425,10 +2425,10 @@
         <v>4</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43"/>
@@ -2453,10 +2453,10 @@
         <v>5</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44"/>
@@ -2481,10 +2481,10 @@
         <v>5</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45"/>
@@ -2509,10 +2509,10 @@
         <v>5</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46"/>
@@ -2537,10 +2537,10 @@
         <v>4</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47"/>
@@ -2550,13 +2550,13 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="E48" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>129</v>
       </c>
       <c r="F48" s="18" t="s">
         <v>32</v>
@@ -2565,10 +2565,10 @@
         <v>4</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48"/>
@@ -2578,13 +2578,13 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="E49" s="18" t="s">
         <v>131</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>132</v>
       </c>
       <c r="F49" s="18" t="s">
         <v>27</v>
@@ -2593,10 +2593,10 @@
         <v>5</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49"/>
@@ -2606,13 +2606,13 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="E50" s="18" t="s">
         <v>134</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>135</v>
       </c>
       <c r="F50" s="18" t="s">
         <v>30</v>
@@ -2621,10 +2621,10 @@
         <v>4</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50"/>
@@ -2634,13 +2634,13 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="E51" s="18" t="s">
         <v>137</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>138</v>
       </c>
       <c r="F51" s="18" t="s">
         <v>27</v>
@@ -2649,10 +2649,10 @@
         <v>5</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51"/>
@@ -2662,13 +2662,13 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="E52" s="18" t="s">
         <v>140</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>141</v>
       </c>
       <c r="F52" s="18" t="s">
         <v>32</v>
@@ -2677,10 +2677,10 @@
         <v>4</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52"/>
@@ -2690,13 +2690,13 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="E53" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>144</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>27</v>
@@ -2705,10 +2705,10 @@
         <v>4</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53"/>
@@ -2718,13 +2718,13 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="E54" s="18" t="s">
         <v>146</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>147</v>
       </c>
       <c r="F54" s="18" t="s">
         <v>27</v>
@@ -2733,10 +2733,10 @@
         <v>4</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54"/>
@@ -2746,13 +2746,13 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="E55" s="18" t="s">
         <v>149</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>150</v>
       </c>
       <c r="F55" s="18" t="s">
         <v>32</v>
@@ -2761,10 +2761,10 @@
         <v>4</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55"/>
@@ -2774,13 +2774,13 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="E56" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>153</v>
       </c>
       <c r="F56" s="18" t="s">
         <v>30</v>
@@ -2789,10 +2789,10 @@
         <v>5</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56"/>
@@ -2802,13 +2802,13 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="E57" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="F57" s="18" t="s">
         <v>27</v>
@@ -2817,10 +2817,10 @@
         <v>4</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J57" s="15"/>
       <c r="K57"/>
